--- a/整合結果/EPU匯出結果/2025-06-02/2025-06-02_自由時報_EPU檢查結果.xlsx
+++ b/整合結果/EPU匯出結果/2025-06-02/2025-06-02_自由時報_EPU檢查結果.xlsx
@@ -168,12 +168,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'Sheet1'!$A$10:$A$11</f>
+              <f>'Sheet1'!$A$16:$A$17</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Sheet1'!$B$10:$B$11</f>
+              <f>'Sheet1'!$B$16:$B$17</f>
             </numRef>
           </val>
         </ser>
@@ -249,7 +249,7 @@
     <from>
       <col>3</col>
       <colOff>0</colOff>
-      <row>9</row>
+      <row>15</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
@@ -559,7 +559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -811,40 +811,247 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-06-02_1428_自由時報_財經_擺脫普通人關鍵！專家：先學會有錢人此項思維.txt</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>惡化</t>
+        </is>
+      </c>
+    </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>統計摘要</t>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-06-02_1525_自由時報_財經_00687B、00933B今公告預估配息 最後買進日6_16.txt</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>金融、金融市場、美元、就業市場、經濟</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fed、降息、殖利率、資金緊縮、緊縮、關稅政策</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>失業</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>✔ 符合 EPU</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-06-02_1531_自由時報_財經_關稅戰引市場波動 基富通低檔自動加碼助力定期定額.txt</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>股市、金融、經濟</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>關稅戰、川普關稅</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>波動、美國總統大選、總統大選</t>
+        </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>✘ 不符合 EPU</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-06-02_1725_自由時報_財經_買氣未見起色 5月六都買賣移轉棟數年減36％.txt</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>不動產、不動產業、房市、房地產、房貸、股市、金融、金融市場、美元、經濟</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>打炒房、信用管制、選擇性信用管制、川普關稅、關稅政策</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>波動、衰退、嚴重衝擊</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-06-02_1821_自由時報_財經_財部再釋38戶房地包租 年租金底價299萬.txt</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>✘ 否</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>經濟</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2025-06-02</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>自由時報_財經</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-06-02_2038_自由時報_財經_永豐5檔ETF將除息 6_23最後買進日.txt</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>✔ 是</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>台股、台積電、金融、美元、貿易、經濟</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>降息、殖利率、聯準會</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>波動、疑慮</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>統計摘要</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>✔ 符合 EPU</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>✘ 不符合 EPU</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>EPU 比例</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>66.67%</t>
         </is>
